--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -538,31 +538,31 @@
         <v>113.112</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>71.53312983793462</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>65.67255457133525</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>66.36937592414391</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>66.90853451743408</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>74.17585660418587</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>61.23584759251182</v>
       </c>
       <c r="I3" t="n">
-        <v>100</v>
+        <v>66.21306520504764</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>65.09780900913344</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
+        <v>147.3365651600969</v>
       </c>
     </row>
     <row r="4">
@@ -575,31 +575,31 @@
         <v>149.244</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>67.74190619997628</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>60.04957054951414</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>60.9363133783552</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>61.6274428297322</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>71.39312684967865</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>54.56965329966184</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>60.73676556768598</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>59.32362387509143</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>259.0846753427116</v>
       </c>
     </row>
     <row r="5">
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157.2920097794337</v>
+        <v>180.2277031686346</v>
       </c>
     </row>
     <row r="3">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.36814593199284</v>
+        <v>81.32025520464445</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80.74528733704845</v>
+        <v>73.99806911903856</v>
       </c>
     </row>
     <row r="5">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.60048924052391</v>
+        <v>70.66004227909794</v>
       </c>
     </row>
     <row r="6">
@@ -902,27 +902,27 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>78.20535773208111</v>
+        <v>70.12821209902546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
+          <t>ICE_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.24748245033928</v>
+        <v>67.95115151422557</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICE_Lee_Chao_1994__Efectividad_%</t>
+          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.06783698392184</v>
+        <v>67.84986388191982</v>
       </c>
     </row>
     <row r="9">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.51855466354974</v>
+        <v>66.26545745475524</v>
       </c>
     </row>
     <row r="10">
@@ -942,7 +942,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.28749532876397</v>
+        <v>60.93255098344991</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,25 +467,20 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Homogeneous_Model_Efectividad_%</t>
+          <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
+          <t>ICE_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ICE_Lee_Chao_1994__Efectividad_%</t>
+          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Bootstrap_Efectividad_%</t>
         </is>
@@ -524,9 +519,6 @@
       <c r="J2" t="n">
         <v>100</v>
       </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,18 +542,15 @@
         <v>66.90853451743408</v>
       </c>
       <c r="G3" t="n">
-        <v>74.17585660418587</v>
+        <v>61.23584759251182</v>
       </c>
       <c r="H3" t="n">
-        <v>61.23584759251182</v>
+        <v>66.21306520504764</v>
       </c>
       <c r="I3" t="n">
-        <v>66.21306520504764</v>
+        <v>65.09780900913344</v>
       </c>
       <c r="J3" t="n">
-        <v>65.09780900913344</v>
-      </c>
-      <c r="K3" t="n">
         <v>147.3365651600969</v>
       </c>
     </row>
@@ -587,18 +576,15 @@
         <v>61.6274428297322</v>
       </c>
       <c r="G4" t="n">
-        <v>71.39312684967865</v>
+        <v>54.56965329966184</v>
       </c>
       <c r="H4" t="n">
-        <v>54.56965329966184</v>
+        <v>60.73676556768598</v>
       </c>
       <c r="I4" t="n">
-        <v>60.73676556768598</v>
+        <v>59.32362387509143</v>
       </c>
       <c r="J4" t="n">
-        <v>59.32362387509143</v>
-      </c>
-      <c r="K4" t="n">
         <v>259.0846753427116</v>
       </c>
     </row>
@@ -624,18 +610,15 @@
         <v>63.3344751465327</v>
       </c>
       <c r="G5" t="n">
-        <v>75.18326499723268</v>
+        <v>55.12076627929445</v>
       </c>
       <c r="H5" t="n">
-        <v>55.12076627929445</v>
+        <v>62.28217644215024</v>
       </c>
       <c r="I5" t="n">
-        <v>62.28217644215024</v>
+        <v>60.62204951501997</v>
       </c>
       <c r="J5" t="n">
-        <v>60.62204951501997</v>
-      </c>
-      <c r="K5" t="n">
         <v>519.5082926829268</v>
       </c>
     </row>
@@ -661,18 +644,15 @@
         <v>72.89411968540968</v>
       </c>
       <c r="G6" t="n">
-        <v>81.7076469568233</v>
+        <v>62.81768250413268</v>
       </c>
       <c r="H6" t="n">
-        <v>62.81768250413268</v>
+        <v>69.12694966376003</v>
       </c>
       <c r="I6" t="n">
-        <v>69.12694966376003</v>
+        <v>69.56989056806572</v>
       </c>
       <c r="J6" t="n">
-        <v>69.56989056806572</v>
-      </c>
-      <c r="K6" t="n">
         <v>147.5919615114764</v>
       </c>
     </row>
@@ -698,18 +678,15 @@
         <v>69.82588214331452</v>
       </c>
       <c r="G7" t="n">
-        <v>81.4120396669534</v>
+        <v>58.1323171848236</v>
       </c>
       <c r="H7" t="n">
-        <v>58.1323171848236</v>
+        <v>65.97882275567247</v>
       </c>
       <c r="I7" t="n">
-        <v>65.97882275567247</v>
+        <v>66.705320690985</v>
       </c>
       <c r="J7" t="n">
-        <v>66.705320690985</v>
-      </c>
-      <c r="K7" t="n">
         <v>122.7415986949431</v>
       </c>
     </row>
@@ -735,18 +712,15 @@
         <v>63.75099678696505</v>
       </c>
       <c r="G8" t="n">
-        <v>81.44836009413446</v>
+        <v>52.17137438009117</v>
       </c>
       <c r="H8" t="n">
-        <v>52.17137438009117</v>
+        <v>62.10905555454595</v>
       </c>
       <c r="I8" t="n">
-        <v>62.10905555454595</v>
+        <v>60.22560316135185</v>
       </c>
       <c r="J8" t="n">
-        <v>60.22560316135185</v>
-      </c>
-      <c r="K8" t="n">
         <v>114.0208415907792</v>
       </c>
     </row>
@@ -772,18 +746,15 @@
         <v>68.34653632226529</v>
       </c>
       <c r="G9" t="n">
-        <v>83.05033613701215</v>
+        <v>51.52893619286559</v>
       </c>
       <c r="H9" t="n">
-        <v>51.52893619286559</v>
+        <v>62.08143598104061</v>
       </c>
       <c r="I9" t="n">
-        <v>62.08143598104061</v>
+        <v>64.10012667502622</v>
       </c>
       <c r="J9" t="n">
-        <v>64.10012667502622</v>
-      </c>
-      <c r="K9" t="n">
         <v>107.7964693665628</v>
       </c>
     </row>
@@ -809,18 +780,15 @@
         <v>69.25239308022799</v>
       </c>
       <c r="G10" t="n">
-        <v>83.51166553577953</v>
+        <v>52.81638141766813</v>
       </c>
       <c r="H10" t="n">
-        <v>52.81638141766813</v>
+        <v>63.0320924581272</v>
       </c>
       <c r="I10" t="n">
-        <v>63.0320924581272</v>
+        <v>65.00435144260479</v>
       </c>
       <c r="J10" t="n">
-        <v>65.00435144260479</v>
-      </c>
-      <c r="K10" t="n">
         <v>103.9689241682149</v>
       </c>
     </row>
@@ -835,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,47 +830,47 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180.2277031686346</v>
+        <v>103.9689241682149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Homogeneous_Model_Efectividad_%</t>
+          <t>1st_order_jackknife_Efectividad_%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.32025520464445</v>
+        <v>70.80750839092266</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st_order_jackknife_Efectividad_%</t>
+          <t>Chao2_bc_Efectividad_%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.99806911903856</v>
+        <v>69.25239308022799</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chao2_bc_Efectividad_%</t>
+          <t>Chao2_Chao_1987__Efectividad_%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.66004227909794</v>
+        <v>68.76863426397202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chao2_Chao_1987__Efectividad_%</t>
+          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70.12821209902546</v>
+        <v>65.00435144260479</v>
       </c>
     </row>
     <row r="7">
@@ -912,37 +880,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.95115151422557</v>
+        <v>63.0320924581272</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
+          <t>2nd_order_jackknife_Efectividad_%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.84986388191982</v>
+        <v>61.3591041570793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2nd_order_jackknife_Efectividad_%</t>
+          <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66.26545745475524</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>60.93255098344991</v>
+        <v>52.81638141766813</v>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -803,7 +803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,6 +822,11 @@
           <t>Efectividad_Promedio_%</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -832,6 +837,11 @@
       <c r="B2" t="n">
         <v>103.9689241682149</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bootstrap</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -842,6 +852,11 @@
       <c r="B3" t="n">
         <v>70.80750839092266</v>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Jackknife</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -852,55 +867,10 @@
       <c r="B4" t="n">
         <v>69.25239308022799</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chao2_Chao_1987__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>68.76863426397202</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>65.00435144260479</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>ICE_Lee_Chao_1994__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>63.0320924581272</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2nd_order_jackknife_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>61.3591041570793</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>52.81638141766813</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Chao</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Por_Unidad" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Resumen_Efectividad" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,16 +28,27 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFD8B8"/>
+        <bgColor rgb="00BFD8B8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -52,14 +62,34 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,444 +463,375 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="36" customWidth="1" min="4" max="4"/>
+    <col width="33" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="37" customWidth="1" min="7" max="7"/>
+    <col width="35" customWidth="1" min="8" max="8"/>
+    <col width="40" customWidth="1" min="9" max="9"/>
+    <col width="26" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Unidad</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Observadas_Mean</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>1st_order_jackknife_Efectividad_%</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>2nd_order_jackknife_Efectividad_%</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Chao2_Chao_1987__Efectividad_%</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Chao2_bc_Efectividad_%</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>ICE_1_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>ICE_Lee_Chao_1994__Efectividad_%</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>iChao2_Chiu_et_al_2014__Efectividad_%</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Bootstrap_Efectividad_%</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Unidad1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>95.938</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="18" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Unidad2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>113.112</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>71.53312983793462</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="3" t="n">
         <v>65.67255457133525</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="3" t="n">
         <v>66.36937592414391</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="3" t="n">
         <v>66.90853451743408</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="3" t="n">
         <v>61.23584759251182</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="3" t="n">
         <v>66.21306520504764</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="3" t="n">
         <v>65.09780900913344</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="3" t="n">
         <v>147.3365651600969</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Unidad3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>149.244</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>67.74190619997628</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="3" t="n">
         <v>60.04957054951414</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="3" t="n">
         <v>60.9363133783552</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="3" t="n">
         <v>61.6274428297322</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="3" t="n">
         <v>54.56965329966184</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="3" t="n">
         <v>60.73676556768598</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4" s="3" t="n">
         <v>59.32362387509143</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4" s="3" t="n">
         <v>259.0846753427116</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Unidad4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>199.686</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>70.68530973451328</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="3" t="n">
         <v>61.47343404149209</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="3" t="n">
         <v>62.51753243500476</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="3" t="n">
         <v>63.3344751465327</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="3" t="n">
         <v>55.12076627929445</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="3" t="n">
         <v>62.28217644215024</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5" s="3" t="n">
         <v>60.62204951501997</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5" s="3" t="n">
         <v>519.5082926829268</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Unidad5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>235.604</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>72.53817733990148</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="3" t="n">
         <v>64.25855720714578</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>72.35839524334551</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="3" t="n">
         <v>72.89411968540968</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="3" t="n">
         <v>62.81768250413268</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="3" t="n">
         <v>69.12694966376003</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6" s="3" t="n">
         <v>69.56989056806572</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6" s="3" t="n">
         <v>147.5919615114764</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="18" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Unidad6</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>250.802</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>71.45356125356125</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="3" t="n">
         <v>62.35753356539036</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>69.2610829276106</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>69.82588214331452</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="3" t="n">
         <v>58.1323171848236</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="3" t="n">
         <v>65.97882275567247</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7" s="3" t="n">
         <v>66.705320690985</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7" s="3" t="n">
         <v>122.7415986949431</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="18" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Unidad7</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>273.414</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>70.49350662744258</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="3" t="n">
         <v>60.09098901098901</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>63.0973343087457</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>63.75099678696505</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="3" t="n">
         <v>52.17137438009117</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="3" t="n">
         <v>62.10905555454595</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="3" t="n">
         <v>60.22560316135185</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8" s="3" t="n">
         <v>114.0208415907792</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="18" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Unidad8</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>300.07</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>70.72952268709487</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="3" t="n">
         <v>61.12737398985115</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="3" t="n">
         <v>67.84524041005142</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="3" t="n">
         <v>68.34653632226529</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="3" t="n">
         <v>51.52893619286559</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="3" t="n">
         <v>62.08143598104061</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="3" t="n">
         <v>64.10012667502622</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9" s="3" t="n">
         <v>107.7964693665628</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="18" customHeight="1">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Unidad9</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>304</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>70.80750839092266</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="3" t="n">
         <v>61.3591041570793</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="3" t="n">
         <v>68.76863426397202</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="3" t="n">
         <v>69.25239308022799</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="3" t="n">
         <v>52.81638141766813</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="3" t="n">
         <v>63.0320924581272</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="3" t="n">
         <v>65.00435144260479</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10" s="3" t="n">
         <v>103.9689241682149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Estimador</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Efectividad_Promedio_%</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Grupo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bootstrap_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>103.9689241682149</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bootstrap</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1st_order_jackknife_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>70.80750839092266</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Jackknife</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Chao2_bc_Efectividad_%</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>69.25239308022799</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Chao</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>95.938</v>
+        <v>96.11799999999999</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>100</v>
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113.112</v>
+        <v>113.489</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>71.53312983793462</v>
+        <v>71.71712277981884</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>65.67255457133525</v>
+        <v>65.84556413167309</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>66.36937592414391</v>
+        <v>66.54372962450455</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>66.90853451743408</v>
+        <v>67.08392115446745</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>61.23584759251182</v>
+        <v>61.4000569876612</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>66.21306520504764</v>
+        <v>66.38711828581805</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>65.09780900913344</v>
+        <v>65.26970214576971</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>147.3365651600969</v>
+        <v>147.5969281256841</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -603,31 +603,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>149.244</v>
+        <v>149.417</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>67.74190619997628</v>
+        <v>67.80196576102895</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>60.04957054951414</v>
+        <v>60.10466837582992</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>60.9363133783552</v>
+        <v>60.99200744556654</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>61.6274428297322</v>
+        <v>61.68359722248988</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>54.56965329966184</v>
+        <v>54.62092613488194</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>60.73676556768598</v>
+        <v>60.79232601159824</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>59.32362387509143</v>
+        <v>59.37822887027293</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>259.0846753427116</v>
+        <v>259.1151087038205</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>199.686</v>
+        <v>199.8</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>70.68530973451328</v>
+        <v>70.72566371681417</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>61.47343404149209</v>
+        <v>61.50852899797742</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>62.51753243500476</v>
+        <v>62.55322346340731</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>63.3344751465327</v>
+        <v>63.37063256451246</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>55.12076627929445</v>
+        <v>55.15223452121346</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>62.28217644215024</v>
+        <v>62.31773310668559</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>60.62204951501997</v>
+        <v>60.65665841922313</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>519.5082926829268</v>
+        <v>519.8048780487806</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>235.604</v>
+        <v>236.156</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>72.53817733990148</v>
+        <v>72.70812807881774</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>64.25855720714578</v>
+        <v>64.40910950497751</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>72.35839524334551</v>
+        <v>72.52792476820215</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>72.89411968540968</v>
+        <v>73.06490436676629</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>62.81768250413268</v>
+        <v>62.9648589559004</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>69.12694966376003</v>
+        <v>69.2889081882944</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>69.56989056806572</v>
+        <v>69.73288686521505</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>147.5919615114764</v>
+        <v>147.9377568407337</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>250.802</v>
+        <v>250.997</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>71.45356125356125</v>
+        <v>71.50911680911682</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>62.35753356539036</v>
+        <v>62.40601690701144</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>69.2610829276106</v>
+        <v>69.31493381863572</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>69.82588214331452</v>
+        <v>69.88017216898396</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>58.1323171848236</v>
+        <v>58.17751539636514</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>65.97882275567247</v>
+        <v>66.03012167050312</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>66.705320690985</v>
+        <v>66.7571844621461</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>122.7415986949431</v>
+        <v>122.8370309951062</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>273.414</v>
+        <v>273.343</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>70.49350662744258</v>
+        <v>70.47520091167621</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>60.09098901098901</v>
+        <v>60.07538461538462</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>63.0973343087457</v>
+        <v>63.08094922701646</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>63.75099678696505</v>
+        <v>63.73444196251615</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>52.17137438009117</v>
+        <v>52.15782654574112</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>62.10905555454595</v>
+        <v>62.09292710851037</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>60.22560316135185</v>
+        <v>60.20996380921753</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>114.0208415907792</v>
+        <v>113.9912327201546</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -773,31 +773,31 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>300.07</v>
+        <v>299.987</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>70.72952268709487</v>
+        <v>70.7099587507366</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>61.12737398985115</v>
+        <v>61.11046602823834</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>67.84524041005142</v>
+        <v>67.82647427230344</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>68.34653632226529</v>
+        <v>68.32763152500218</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>51.52893619286559</v>
+        <v>51.51468317955534</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>62.08143598104061</v>
+        <v>62.06426412385254</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>64.10012667502622</v>
+        <v>64.08239644370011</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>107.7964693665628</v>
+        <v>107.7666526339424</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
+++ b/python_Proyect/Resultados/Efectividad_Estimadores_Frec.xlsx
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>96.11799999999999</v>
+        <v>96.199</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>100</v>
@@ -569,31 +569,31 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>113.489</v>
+        <v>112.709</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>71.71712277981884</v>
+        <v>71.19992082510365</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>65.84556413167309</v>
+        <v>65.37253180880509</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>66.54372962450455</v>
+        <v>66.06546230407615</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>67.08392115446745</v>
+        <v>66.60160020169934</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>61.4000569876612</v>
+        <v>60.96025009555276</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>66.38711828581805</v>
+        <v>65.9100256718642</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>65.26970214576971</v>
+        <v>64.80098429837119</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>147.5969281256841</v>
+        <v>146.4796359312151</v>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
@@ -603,31 +603,31 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>149.417</v>
+        <v>148.923</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>67.80196576102895</v>
+        <v>67.56952143000811</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>60.10466837582992</v>
+        <v>59.89944561013044</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>60.99200744556654</v>
+        <v>60.78365747637804</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>61.68359722248988</v>
+        <v>61.47280795294287</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>54.62092613488194</v>
+        <v>54.43496653625568</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>60.79232601159824</v>
+        <v>60.58468001665237</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>59.37822887027293</v>
+        <v>59.17556414729221</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>259.1151087038205</v>
+        <v>258.1375596565633</v>
       </c>
     </row>
     <row r="5" ht="18" customHeight="1">
@@ -637,31 +637,31 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>199.8</v>
+        <v>200.016</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>70.72566371681417</v>
+        <v>70.8021238938053</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>61.50852899797742</v>
+        <v>61.57502470500226</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>62.55322346340731</v>
+        <v>62.62084856985422</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>63.37063256451246</v>
+        <v>63.43914135647407</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>55.15223452121346</v>
+        <v>55.21185855853369</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>62.31773310668559</v>
+        <v>62.38510362896308</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>60.65665841922313</v>
+        <v>60.72223318508174</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>519.8048780487806</v>
+        <v>520.3668292682926</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>236.156</v>
+        <v>235.978</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>72.70812807881774</v>
+        <v>72.65332512315271</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>64.40910950497751</v>
+        <v>64.36056184372018</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>72.52792476820215</v>
+        <v>72.47325763880997</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>73.06490436676629</v>
+        <v>73.00983249487956</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>62.9648589559004</v>
+        <v>62.91739988268544</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>69.2889081882944</v>
+        <v>69.23668243219454</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>69.73288686521505</v>
+        <v>69.68032646504734</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>147.9377568407337</v>
+        <v>147.8262503758645</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
@@ -705,31 +705,31 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>250.997</v>
+        <v>251.162</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>71.50911680911682</v>
+        <v>71.55612535612535</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>62.40601690701144</v>
+        <v>62.44704127299852</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>69.31493381863572</v>
+        <v>69.36049995719546</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>69.88017216898396</v>
+        <v>69.92610988301196</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>58.17751539636514</v>
+        <v>58.21576003690029</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>66.03012167050312</v>
+        <v>66.07352844459061</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>66.7571844621461</v>
+        <v>66.80106919159009</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>122.8370309951062</v>
+        <v>122.9177814029366</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
@@ -739,31 +739,31 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>273.343</v>
+        <v>273.129</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>70.47520091167621</v>
+        <v>70.42002593739444</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>60.07538461538462</v>
+        <v>60.02835164835165</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>63.08094922701646</v>
+        <v>63.03156320602971</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>63.73444196251615</v>
+        <v>63.68454432262789</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>52.15782654574112</v>
+        <v>52.11699222812264</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>62.09292710851037</v>
+        <v>62.04431460919185</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>60.20996380921753</v>
+        <v>60.16282548024926</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>113.9912327201546</v>
+        <v>113.9019890819341</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
@@ -773,31 +773,31 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>299.987</v>
+        <v>299.945</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>70.7099587507366</v>
+        <v>70.70005892751915</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>61.11046602823834</v>
+        <v>61.10191019224149</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>67.82647427230344</v>
+        <v>67.81697815440687</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>68.32763152500218</v>
+        <v>68.31806524204974</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>51.51468317955534</v>
+        <v>51.50747081137425</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>62.06426412385254</v>
+        <v>62.05557475033567</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>64.08239644370011</v>
+        <v>64.0734245194146</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>107.7666526339424</v>
+        <v>107.7515646487609</v>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
